--- a/test scenario.xlsx
+++ b/test scenario.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417052FB-6AE3-40CF-9617-0EA5009D3F62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EC65D4-743D-4299-868A-01F862557D9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>Project Name(Client)</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>Validate flipkey logo funtionality</t>
+  </si>
+  <si>
+    <t>filpkey_10</t>
+  </si>
+  <si>
+    <t>Validate moneychange symbol  funtionality</t>
   </si>
 </sst>
 </file>
@@ -555,7 +561,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -590,6 +596,9 @@
       <c r="C2" t="s">
         <v>15</v>
       </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -601,6 +610,9 @@
       <c r="C3" t="s">
         <v>15</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -612,6 +624,9 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -623,26 +638,32 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -651,7 +672,7 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -662,7 +683,7 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -673,14 +694,22 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
